--- a/data-raw/toronto-harbour-habitat-data/TH_Environmental_Clusters_Nov2017.xlsx
+++ b/data-raw/toronto-harbour-habitat-data/TH_Environmental_Clusters_Nov2017.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morgan/Documents/PhD/Analysis/Habitat Info/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\CU\Data\toronto-lmb-np-accel\data-raw\toronto-harbour-habitat-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367EAE3D-C7D6-A445-9769-EF7D1E4D2B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095CF69A-E401-4BE0-AA0A-91FFD4A4A5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -453,9 +453,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -493,9 +493,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -528,26 +528,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -580,26 +563,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -776,30 +742,30 @@
   <dimension ref="A1:P52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -846,7 +812,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>94</v>
       </c>
@@ -854,7 +820,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -908,7 +874,7 @@
         <v>-5.7</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -918,7 +884,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -929,19 +895,19 @@
         <v>1</v>
       </c>
       <c r="D5" s="4" t="str">
-        <f>H5&amp;"±"&amp;I5</f>
+        <f t="shared" ref="D5:D26" si="0">H5&amp;"±"&amp;I5</f>
         <v>155±27</v>
       </c>
       <c r="E5" s="5" t="str">
-        <f>J5&amp;"±"&amp;K5</f>
+        <f t="shared" ref="E5:E26" si="1">J5&amp;"±"&amp;K5</f>
         <v>63.6±8.9</v>
       </c>
       <c r="F5" s="6" t="str">
-        <f>L5&amp;"±"&amp;M5</f>
+        <f t="shared" ref="F5:F20" si="2">L5&amp;"±"&amp;M5</f>
         <v>21.3±2.1</v>
       </c>
       <c r="G5" s="7" t="str">
-        <f>O5&amp;"±"&amp;N5</f>
+        <f t="shared" ref="G5:G26" si="3">O5&amp;"±"&amp;N5</f>
         <v>0.9±1.8</v>
       </c>
       <c r="H5">
@@ -972,7 +938,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -983,19 +949,19 @@
         <v>5</v>
       </c>
       <c r="D6" s="4" t="str">
-        <f>H6&amp;"±"&amp;I6</f>
+        <f t="shared" si="0"/>
         <v>181±40</v>
       </c>
       <c r="E6" s="5" t="str">
-        <f>J6&amp;"±"&amp;K6</f>
+        <f t="shared" si="1"/>
         <v>58.6±10</v>
       </c>
       <c r="F6" s="6" t="str">
-        <f>L6&amp;"±"&amp;M6</f>
+        <f t="shared" si="2"/>
         <v>18.8±1</v>
       </c>
       <c r="G6" s="7" t="str">
-        <f>O6&amp;"±"&amp;N6</f>
+        <f t="shared" si="3"/>
         <v>1.3±0.6</v>
       </c>
       <c r="H6">
@@ -1026,7 +992,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -1037,19 +1003,19 @@
         <v>2</v>
       </c>
       <c r="D7" s="4" t="str">
-        <f>H7&amp;"±"&amp;I7</f>
+        <f t="shared" si="0"/>
         <v>299±38</v>
       </c>
       <c r="E7" s="5" t="str">
-        <f>J7&amp;"±"&amp;K7</f>
+        <f t="shared" si="1"/>
         <v>2.5±9.6</v>
       </c>
       <c r="F7" s="6" t="str">
-        <f>L7&amp;"±"&amp;M7</f>
+        <f t="shared" si="2"/>
         <v>17.3±0.9</v>
       </c>
       <c r="G7" s="7" t="str">
-        <f>O7&amp;"±"&amp;N7</f>
+        <f t="shared" si="3"/>
         <v>7.9±2.7</v>
       </c>
       <c r="H7" s="9">
@@ -1080,7 +1046,7 @@
         <v>-7.9</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>18</v>
       </c>
@@ -1091,19 +1057,19 @@
         <v>2</v>
       </c>
       <c r="D8" s="4" t="str">
-        <f>H8&amp;"±"&amp;I8</f>
+        <f t="shared" si="0"/>
         <v>1547±621</v>
       </c>
       <c r="E8" s="5" t="str">
-        <f>J8&amp;"±"&amp;K8</f>
+        <f t="shared" si="1"/>
         <v>2.5±9.2</v>
       </c>
       <c r="F8" s="6" t="str">
-        <f>L8&amp;"±"&amp;M8</f>
+        <f t="shared" si="2"/>
         <v>9.7±0.1</v>
       </c>
       <c r="G8" s="7" t="str">
-        <f>O8&amp;"±"&amp;N8</f>
+        <f t="shared" si="3"/>
         <v>6.5±3.1</v>
       </c>
       <c r="H8" s="9">
@@ -1134,7 +1100,7 @@
         <v>-6.5</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>19</v>
       </c>
@@ -1145,19 +1111,19 @@
         <v>4</v>
       </c>
       <c r="D9" s="4" t="str">
-        <f>H9&amp;"±"&amp;I9</f>
+        <f t="shared" si="0"/>
         <v>5854±865</v>
       </c>
       <c r="E9" s="5" t="str">
-        <f>J9&amp;"±"&amp;K9</f>
+        <f t="shared" si="1"/>
         <v>5.2±11.7</v>
       </c>
       <c r="F9" s="6" t="str">
-        <f>L9&amp;"±"&amp;M9</f>
+        <f t="shared" si="2"/>
         <v>10.1±0.5</v>
       </c>
       <c r="G9" s="7" t="str">
-        <f>O9&amp;"±"&amp;N9</f>
+        <f t="shared" si="3"/>
         <v>6.1±3.9</v>
       </c>
       <c r="H9" s="9">
@@ -1188,7 +1154,7 @@
         <v>-6.1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1199,19 +1165,19 @@
         <v>4</v>
       </c>
       <c r="D10" s="4" t="str">
-        <f>H10&amp;"±"&amp;I10</f>
+        <f t="shared" si="0"/>
         <v>4903±946</v>
       </c>
       <c r="E10" s="5" t="str">
-        <f>J10&amp;"±"&amp;K10</f>
+        <f t="shared" si="1"/>
         <v>0.6±4.4</v>
       </c>
       <c r="F10" s="6" t="str">
-        <f>L10&amp;"±"&amp;M10</f>
+        <f t="shared" si="2"/>
         <v>12.8±1.9</v>
       </c>
       <c r="G10" s="7" t="str">
-        <f>O10&amp;"±"&amp;N10</f>
+        <f t="shared" si="3"/>
         <v>6.5±3</v>
       </c>
       <c r="H10">
@@ -1242,7 +1208,7 @@
         <v>-6.5</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
@@ -1253,19 +1219,19 @@
         <v>5</v>
       </c>
       <c r="D11" s="4" t="str">
-        <f>H11&amp;"±"&amp;I11</f>
+        <f t="shared" si="0"/>
         <v>110±97</v>
       </c>
       <c r="E11" s="5" t="str">
-        <f>J11&amp;"±"&amp;K11</f>
+        <f t="shared" si="1"/>
         <v>3.7±12.7</v>
       </c>
       <c r="F11" s="6" t="str">
-        <f>L11&amp;"±"&amp;M11</f>
+        <f t="shared" si="2"/>
         <v>19.3±0.9</v>
       </c>
       <c r="G11" s="7" t="str">
-        <f>O11&amp;"±"&amp;N11</f>
+        <f t="shared" si="3"/>
         <v>1.1±2.7</v>
       </c>
       <c r="H11" s="9">
@@ -1296,7 +1262,7 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1307,19 +1273,19 @@
         <v>2</v>
       </c>
       <c r="D12" s="4" t="str">
-        <f>H12&amp;"±"&amp;I12</f>
+        <f t="shared" si="0"/>
         <v>702±211</v>
       </c>
       <c r="E12" s="5" t="str">
-        <f>J12&amp;"±"&amp;K12</f>
+        <f t="shared" si="1"/>
         <v>3.7±12.7</v>
       </c>
       <c r="F12" s="6" t="str">
-        <f>L12&amp;"±"&amp;M12</f>
+        <f t="shared" si="2"/>
         <v>13.8±1.2</v>
       </c>
       <c r="G12" s="7" t="str">
-        <f>O12&amp;"±"&amp;N12</f>
+        <f t="shared" si="3"/>
         <v>7.2±1.2</v>
       </c>
       <c r="H12">
@@ -1350,7 +1316,7 @@
         <v>-7.2</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1361,19 +1327,19 @@
         <v>2</v>
       </c>
       <c r="D13" s="4" t="str">
-        <f>H13&amp;"±"&amp;I13</f>
+        <f t="shared" si="0"/>
         <v>695±227</v>
       </c>
       <c r="E13" s="5" t="str">
-        <f>J13&amp;"±"&amp;K13</f>
+        <f t="shared" si="1"/>
         <v>2.3±8.8</v>
       </c>
       <c r="F13" s="6" t="str">
-        <f>L13&amp;"±"&amp;M13</f>
+        <f t="shared" si="2"/>
         <v>15.5±0.8</v>
       </c>
       <c r="G13" s="7" t="str">
-        <f>O13&amp;"±"&amp;N13</f>
+        <f t="shared" si="3"/>
         <v>8.2±1.3</v>
       </c>
       <c r="H13">
@@ -1404,7 +1370,7 @@
         <v>-8.1999999999999993</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1415,19 +1381,19 @@
         <v>5</v>
       </c>
       <c r="D14" s="4" t="str">
-        <f>H14&amp;"±"&amp;I14</f>
+        <f t="shared" si="0"/>
         <v>222±174</v>
       </c>
       <c r="E14" s="5" t="str">
-        <f>J14&amp;"±"&amp;K14</f>
+        <f t="shared" si="1"/>
         <v>32.2±27.6</v>
       </c>
       <c r="F14" s="6" t="str">
-        <f>L14&amp;"±"&amp;M14</f>
+        <f t="shared" si="2"/>
         <v>14.8±1.1</v>
       </c>
       <c r="G14" s="7" t="str">
-        <f>O14&amp;"±"&amp;N14</f>
+        <f t="shared" si="3"/>
         <v>2.4±2.1</v>
       </c>
       <c r="H14">
@@ -1458,7 +1424,7 @@
         <v>-2.4</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1469,19 +1435,19 @@
         <v>5</v>
       </c>
       <c r="D15" s="4" t="str">
-        <f>H15&amp;"±"&amp;I15</f>
+        <f t="shared" si="0"/>
         <v>1161±882</v>
       </c>
       <c r="E15" s="5" t="str">
-        <f>J15&amp;"±"&amp;K15</f>
+        <f t="shared" si="1"/>
         <v>42.6±18</v>
       </c>
       <c r="F15" s="6" t="str">
-        <f>L15&amp;"±"&amp;M15</f>
+        <f t="shared" si="2"/>
         <v>17.6±1.8</v>
       </c>
       <c r="G15" s="7" t="str">
-        <f>O15&amp;"±"&amp;N15</f>
+        <f t="shared" si="3"/>
         <v>1.2±0.9</v>
       </c>
       <c r="H15">
@@ -1512,7 +1478,7 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>26</v>
       </c>
@@ -1523,19 +1489,19 @@
         <v>5</v>
       </c>
       <c r="D16" s="4" t="str">
-        <f>H16&amp;"±"&amp;I16</f>
+        <f t="shared" si="0"/>
         <v>234±59</v>
       </c>
       <c r="E16" s="5" t="str">
-        <f>J16&amp;"±"&amp;K16</f>
+        <f t="shared" si="1"/>
         <v>27.4±28.3</v>
       </c>
       <c r="F16" s="6" t="str">
-        <f>L16&amp;"±"&amp;M16</f>
+        <f t="shared" si="2"/>
         <v>16±2.9</v>
       </c>
       <c r="G16" s="7" t="str">
-        <f>O16&amp;"±"&amp;N16</f>
+        <f t="shared" si="3"/>
         <v>2.9±2.1</v>
       </c>
       <c r="H16" s="9">
@@ -1566,7 +1532,7 @@
         <v>-2.9</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1577,19 +1543,19 @@
         <v>1</v>
       </c>
       <c r="D17" s="4" t="str">
-        <f>H17&amp;"±"&amp;I17</f>
+        <f t="shared" si="0"/>
         <v>276±249</v>
       </c>
       <c r="E17" s="5" t="str">
-        <f>J17&amp;"±"&amp;K17</f>
+        <f t="shared" si="1"/>
         <v>69.4±6.4</v>
       </c>
       <c r="F17" s="6" t="str">
-        <f>L17&amp;"±"&amp;M17</f>
+        <f t="shared" si="2"/>
         <v>21.8±1.7</v>
       </c>
       <c r="G17" s="7" t="str">
-        <f>O17&amp;"±"&amp;N17</f>
+        <f t="shared" si="3"/>
         <v>0.1±0.7</v>
       </c>
       <c r="H17">
@@ -1620,7 +1586,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>28</v>
       </c>
@@ -1629,19 +1595,19 @@
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="4" t="str">
-        <f>H18&amp;"±"&amp;I18</f>
+        <f t="shared" si="0"/>
         <v>283±526</v>
       </c>
       <c r="E18" s="5" t="str">
-        <f>J18&amp;"±"&amp;K18</f>
+        <f t="shared" si="1"/>
         <v>46.3±9.9</v>
       </c>
       <c r="F18" s="6" t="str">
-        <f>L18&amp;"±"&amp;M18</f>
+        <f t="shared" si="2"/>
         <v>±</v>
       </c>
       <c r="G18" s="7" t="str">
-        <f>O18&amp;"±"&amp;N18</f>
+        <f t="shared" si="3"/>
         <v>2.4±2</v>
       </c>
       <c r="H18" s="9">
@@ -1668,7 +1634,7 @@
         <v>-2.4</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1679,19 +1645,19 @@
         <v>3</v>
       </c>
       <c r="D19" s="4" t="str">
-        <f>H19&amp;"±"&amp;I19</f>
+        <f t="shared" si="0"/>
         <v>867±201</v>
       </c>
       <c r="E19" s="5" t="str">
-        <f>J19&amp;"±"&amp;K19</f>
+        <f t="shared" si="1"/>
         <v>0.9±6.3</v>
       </c>
       <c r="F19" s="6" t="str">
-        <f>L19&amp;"±"&amp;M19</f>
+        <f t="shared" si="2"/>
         <v>16.3±1</v>
       </c>
       <c r="G19" s="7" t="str">
-        <f>O19&amp;"±"&amp;N19</f>
+        <f t="shared" si="3"/>
         <v>8.4±1</v>
       </c>
       <c r="H19">
@@ -1722,7 +1688,7 @@
         <v>-8.4</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1733,19 +1699,19 @@
         <v>2</v>
       </c>
       <c r="D20" s="4" t="str">
-        <f>H20&amp;"±"&amp;I20</f>
+        <f t="shared" si="0"/>
         <v>922±266</v>
       </c>
       <c r="E20" s="5" t="str">
-        <f>J20&amp;"±"&amp;K20</f>
+        <f t="shared" si="1"/>
         <v>2.2±9.7</v>
       </c>
       <c r="F20" s="6" t="str">
-        <f>L20&amp;"±"&amp;M20</f>
+        <f t="shared" si="2"/>
         <v>15.6±1.1</v>
       </c>
       <c r="G20" s="7" t="str">
-        <f>O20&amp;"±"&amp;N20</f>
+        <f t="shared" si="3"/>
         <v>8.9±0.7</v>
       </c>
       <c r="H20">
@@ -1776,7 +1742,7 @@
         <v>-8.9</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -1784,16 +1750,16 @@
         <v>91</v>
       </c>
       <c r="D21" s="4" t="str">
-        <f>H21&amp;"±"&amp;I21</f>
+        <f t="shared" si="0"/>
         <v>7898±441</v>
       </c>
       <c r="E21" s="5" t="str">
-        <f>J21&amp;"±"&amp;K21</f>
+        <f t="shared" si="1"/>
         <v>0±0</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="7" t="str">
-        <f>O21&amp;"±"&amp;N21</f>
+        <f t="shared" si="3"/>
         <v>8.1±2.2</v>
       </c>
       <c r="H21">
@@ -1815,7 +1781,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -1826,11 +1792,11 @@
         <v>2</v>
       </c>
       <c r="D22" s="4" t="str">
-        <f>H22&amp;"±"&amp;I22</f>
+        <f t="shared" si="0"/>
         <v>1050±100</v>
       </c>
       <c r="E22" s="5" t="str">
-        <f>J22&amp;"±"&amp;K22</f>
+        <f t="shared" si="1"/>
         <v>0.2±2.9</v>
       </c>
       <c r="F22" s="6" t="str">
@@ -1838,7 +1804,7 @@
         <v>17.3±0.6</v>
       </c>
       <c r="G22" s="7" t="str">
-        <f>O22&amp;"±"&amp;N22</f>
+        <f t="shared" si="3"/>
         <v>8.5±0.8</v>
       </c>
       <c r="H22">
@@ -1869,7 +1835,7 @@
         <v>-8.5</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -1880,11 +1846,11 @@
         <v>2</v>
       </c>
       <c r="D23" s="4" t="str">
-        <f>H23&amp;"±"&amp;I23</f>
+        <f t="shared" si="0"/>
         <v>898±184</v>
       </c>
       <c r="E23" s="5" t="str">
-        <f>J23&amp;"±"&amp;K23</f>
+        <f t="shared" si="1"/>
         <v>0.7±4.1</v>
       </c>
       <c r="F23" s="6" t="str">
@@ -1892,7 +1858,7 @@
         <v>15.4±0.8</v>
       </c>
       <c r="G23" s="7" t="str">
-        <f>O23&amp;"±"&amp;N23</f>
+        <f t="shared" si="3"/>
         <v>9.2±1.7</v>
       </c>
       <c r="H23">
@@ -1923,7 +1889,7 @@
         <v>-9.1999999999999993</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>33</v>
       </c>
@@ -1934,11 +1900,11 @@
         <v>3</v>
       </c>
       <c r="D24" s="4" t="str">
-        <f>H24&amp;"±"&amp;I24</f>
+        <f t="shared" si="0"/>
         <v>520±268</v>
       </c>
       <c r="E24" s="5" t="str">
-        <f>J24&amp;"±"&amp;K24</f>
+        <f t="shared" si="1"/>
         <v>7.8±17.8</v>
       </c>
       <c r="F24" s="6" t="str">
@@ -1946,7 +1912,7 @@
         <v>15.4±0.8</v>
       </c>
       <c r="G24" s="7" t="str">
-        <f>O24&amp;"±"&amp;N24</f>
+        <f t="shared" si="3"/>
         <v>4.3±2.4</v>
       </c>
       <c r="H24" s="9">
@@ -1977,7 +1943,7 @@
         <v>-4.3</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -1988,11 +1954,11 @@
         <v>2</v>
       </c>
       <c r="D25" s="4" t="str">
-        <f>H25&amp;"±"&amp;I25</f>
+        <f t="shared" si="0"/>
         <v>1725±970</v>
       </c>
       <c r="E25" s="5" t="str">
-        <f>J25&amp;"±"&amp;K25</f>
+        <f t="shared" si="1"/>
         <v>14.3±23.7</v>
       </c>
       <c r="F25" s="6" t="str">
@@ -2000,7 +1966,7 @@
         <v>11.3±0.9</v>
       </c>
       <c r="G25" s="7" t="str">
-        <f>O25&amp;"±"&amp;N25</f>
+        <f t="shared" si="3"/>
         <v>3.8±2.2</v>
       </c>
       <c r="H25">
@@ -2031,7 +1997,7 @@
         <v>-3.8</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -2042,11 +2008,11 @@
         <v>2</v>
       </c>
       <c r="D26" s="4" t="str">
-        <f>H26&amp;"±"&amp;I26</f>
+        <f t="shared" si="0"/>
         <v>650±233</v>
       </c>
       <c r="E26" s="5" t="str">
-        <f>J26&amp;"±"&amp;K26</f>
+        <f t="shared" si="1"/>
         <v>4.8±13.8</v>
       </c>
       <c r="F26" s="6" t="str">
@@ -2054,7 +2020,7 @@
         <v>13.4±1</v>
       </c>
       <c r="G26" s="7" t="str">
-        <f>O26&amp;"±"&amp;N26</f>
+        <f t="shared" si="3"/>
         <v>7.3±1.2</v>
       </c>
       <c r="H26">
@@ -2085,7 +2051,7 @@
         <v>-7.3</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>96</v>
       </c>
@@ -2095,7 +2061,7 @@
       <c r="F27" s="6"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>95</v>
       </c>
@@ -2105,7 +2071,7 @@
       <c r="F28" s="6"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -2116,19 +2082,19 @@
         <v>2</v>
       </c>
       <c r="D29" s="4" t="str">
-        <f>H29&amp;"±"&amp;I29</f>
+        <f t="shared" ref="D29:D41" si="4">H29&amp;"±"&amp;I29</f>
         <v>2026±1356</v>
       </c>
       <c r="E29" s="5" t="str">
-        <f>J29&amp;"±"&amp;K29</f>
+        <f t="shared" ref="E29:E41" si="5">J29&amp;"±"&amp;K29</f>
         <v>1.2±5.7</v>
       </c>
       <c r="F29" s="6" t="str">
-        <f>L29&amp;"±"&amp;M29</f>
+        <f t="shared" ref="F29:F41" si="6">L29&amp;"±"&amp;M29</f>
         <v>14.5±1.4</v>
       </c>
       <c r="G29" s="7" t="str">
-        <f>O29&amp;"±"&amp;N29</f>
+        <f t="shared" ref="G29:G41" si="7">O29&amp;"±"&amp;N29</f>
         <v>9.7±2.3</v>
       </c>
       <c r="H29">
@@ -2159,7 +2125,7 @@
         <v>-9.6999999999999993</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>37</v>
       </c>
@@ -2170,19 +2136,19 @@
         <v>2</v>
       </c>
       <c r="D30" s="4" t="str">
-        <f>H30&amp;"±"&amp;I30</f>
+        <f t="shared" si="4"/>
         <v>830±225</v>
       </c>
       <c r="E30" s="5" t="str">
-        <f>J30&amp;"±"&amp;K30</f>
+        <f t="shared" si="5"/>
         <v>2.8±10.3</v>
       </c>
       <c r="F30" s="6" t="str">
-        <f>L30&amp;"±"&amp;M30</f>
+        <f t="shared" si="6"/>
         <v>16±1.1</v>
       </c>
       <c r="G30" s="7" t="str">
-        <f>O30&amp;"±"&amp;N30</f>
+        <f t="shared" si="7"/>
         <v>6.9±1.9</v>
       </c>
       <c r="H30" s="9">
@@ -2213,7 +2179,7 @@
         <v>-6.9</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -2224,19 +2190,19 @@
         <v>1</v>
       </c>
       <c r="D31" s="4" t="str">
-        <f>H31&amp;"±"&amp;I31</f>
+        <f t="shared" si="4"/>
         <v>94±13</v>
       </c>
       <c r="E31" s="5" t="str">
-        <f>J31&amp;"±"&amp;K31</f>
+        <f t="shared" si="5"/>
         <v>36.1±17.9</v>
       </c>
       <c r="F31" s="6" t="str">
-        <f>L31&amp;"±"&amp;M31</f>
+        <f t="shared" si="6"/>
         <v>18.8±0</v>
       </c>
       <c r="G31" s="7" t="str">
-        <f>O31&amp;"±"&amp;N31</f>
+        <f t="shared" si="7"/>
         <v>2.4±1.6</v>
       </c>
       <c r="H31">
@@ -2267,7 +2233,7 @@
         <v>-2.4</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -2278,19 +2244,19 @@
         <v>1</v>
       </c>
       <c r="D32" s="4" t="str">
-        <f>H32&amp;"±"&amp;I32</f>
+        <f t="shared" si="4"/>
         <v>140±25</v>
       </c>
       <c r="E32" s="5" t="str">
-        <f>J32&amp;"±"&amp;K32</f>
+        <f t="shared" si="5"/>
         <v>42.7±17</v>
       </c>
       <c r="F32" s="6" t="str">
-        <f>L32&amp;"±"&amp;M32</f>
+        <f t="shared" si="6"/>
         <v>18.5±0.1</v>
       </c>
       <c r="G32" s="7" t="str">
-        <f>O32&amp;"±"&amp;N32</f>
+        <f t="shared" si="7"/>
         <v>2.2±1.2</v>
       </c>
       <c r="H32">
@@ -2321,7 +2287,7 @@
         <v>-2.2000000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>40</v>
       </c>
@@ -2332,19 +2298,19 @@
         <v>1</v>
       </c>
       <c r="D33" s="4" t="str">
-        <f>H33&amp;"±"&amp;I33</f>
+        <f t="shared" si="4"/>
         <v>78±28</v>
       </c>
       <c r="E33" s="5" t="str">
-        <f>J33&amp;"±"&amp;K33</f>
+        <f t="shared" si="5"/>
         <v>52.3±10.2</v>
       </c>
       <c r="F33" s="6" t="str">
-        <f>L33&amp;"±"&amp;M33</f>
+        <f t="shared" si="6"/>
         <v>17.9±2.7</v>
       </c>
       <c r="G33" s="7" t="str">
-        <f>O33&amp;"±"&amp;N33</f>
+        <f t="shared" si="7"/>
         <v>1.5±1.3</v>
       </c>
       <c r="H33" s="9">
@@ -2375,7 +2341,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -2386,19 +2352,19 @@
         <v>1</v>
       </c>
       <c r="D34" s="4" t="str">
-        <f>H34&amp;"±"&amp;I34</f>
+        <f t="shared" si="4"/>
         <v>105±88</v>
       </c>
       <c r="E34" s="5" t="str">
-        <f>J34&amp;"±"&amp;K34</f>
+        <f t="shared" si="5"/>
         <v>54.5±15.1</v>
       </c>
       <c r="F34" s="6" t="str">
-        <f>L34&amp;"±"&amp;M34</f>
+        <f t="shared" si="6"/>
         <v>18.4±3</v>
       </c>
       <c r="G34" s="7" t="str">
-        <f>O34&amp;"±"&amp;N34</f>
+        <f t="shared" si="7"/>
         <v>0.6±1.4</v>
       </c>
       <c r="H34">
@@ -2429,7 +2395,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -2440,19 +2406,19 @@
         <v>3</v>
       </c>
       <c r="D35" s="4" t="str">
-        <f>H35&amp;"±"&amp;I35</f>
+        <f t="shared" si="4"/>
         <v>782±376</v>
       </c>
       <c r="E35" s="5" t="str">
-        <f>J35&amp;"±"&amp;K35</f>
+        <f t="shared" si="5"/>
         <v>21.1±24.3</v>
       </c>
       <c r="F35" s="6" t="str">
-        <f>L35&amp;"±"&amp;M35</f>
+        <f t="shared" si="6"/>
         <v>15.9±1.3</v>
       </c>
       <c r="G35" s="7" t="str">
-        <f>O35&amp;"±"&amp;N35</f>
+        <f t="shared" si="7"/>
         <v>3.5±2.2</v>
       </c>
       <c r="H35">
@@ -2483,7 +2449,7 @@
         <v>-3.5</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -2494,19 +2460,19 @@
         <v>3</v>
       </c>
       <c r="D36" s="4" t="str">
-        <f>H36&amp;"±"&amp;I36</f>
+        <f t="shared" si="4"/>
         <v>862±194</v>
       </c>
       <c r="E36" s="5" t="str">
-        <f>J36&amp;"±"&amp;K36</f>
+        <f t="shared" si="5"/>
         <v>11.4±19.7</v>
       </c>
       <c r="F36" s="6" t="str">
-        <f>L36&amp;"±"&amp;M36</f>
+        <f t="shared" si="6"/>
         <v>16.9±0.8</v>
       </c>
       <c r="G36" s="7" t="str">
-        <f>O36&amp;"±"&amp;N36</f>
+        <f t="shared" si="7"/>
         <v>6.1±3.5</v>
       </c>
       <c r="H36">
@@ -2537,7 +2503,7 @@
         <v>-6.1</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -2548,19 +2514,19 @@
         <v>3</v>
       </c>
       <c r="D37" s="4" t="str">
-        <f>H37&amp;"±"&amp;I37</f>
+        <f t="shared" si="4"/>
         <v>977±142</v>
       </c>
       <c r="E37" s="5" t="str">
-        <f>J37&amp;"±"&amp;K37</f>
+        <f t="shared" si="5"/>
         <v>15.6±22.3</v>
       </c>
       <c r="F37" s="6" t="str">
-        <f>L37&amp;"±"&amp;M37</f>
+        <f t="shared" si="6"/>
         <v>17.5±0.3</v>
       </c>
       <c r="G37" s="7" t="str">
-        <f>O37&amp;"±"&amp;N37</f>
+        <f t="shared" si="7"/>
         <v>4.8±3.1</v>
       </c>
       <c r="H37">
@@ -2591,7 +2557,7 @@
         <v>-4.8</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -2602,19 +2568,19 @@
         <v>3</v>
       </c>
       <c r="D38" s="4" t="str">
-        <f>H38&amp;"±"&amp;I38</f>
+        <f t="shared" si="4"/>
         <v>1016±89</v>
       </c>
       <c r="E38" s="5" t="str">
-        <f>J38&amp;"±"&amp;K38</f>
+        <f t="shared" si="5"/>
         <v>16.2±21.8</v>
       </c>
       <c r="F38" s="6" t="str">
-        <f>L38&amp;"±"&amp;M38</f>
+        <f t="shared" si="6"/>
         <v>16.9±0.9</v>
       </c>
       <c r="G38" s="7" t="str">
-        <f>O38&amp;"±"&amp;N38</f>
+        <f t="shared" si="7"/>
         <v>4.3±2.8</v>
       </c>
       <c r="H38">
@@ -2645,7 +2611,7 @@
         <v>-4.3</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -2656,19 +2622,19 @@
         <v>1</v>
       </c>
       <c r="D39" s="4" t="str">
-        <f>H39&amp;"±"&amp;I39</f>
+        <f t="shared" si="4"/>
         <v>181±36</v>
       </c>
       <c r="E39" s="5" t="str">
-        <f>J39&amp;"±"&amp;K39</f>
+        <f t="shared" si="5"/>
         <v>24.3±21.5</v>
       </c>
       <c r="F39" s="6" t="str">
-        <f>L39&amp;"±"&amp;M39</f>
+        <f t="shared" si="6"/>
         <v>18±0.1</v>
       </c>
       <c r="G39" s="7" t="str">
-        <f>O39&amp;"±"&amp;N39</f>
+        <f t="shared" si="7"/>
         <v>3±1.5</v>
       </c>
       <c r="H39">
@@ -2699,7 +2665,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -2710,19 +2676,19 @@
         <v>2</v>
       </c>
       <c r="D40" s="4" t="str">
-        <f>H40&amp;"±"&amp;I40</f>
+        <f t="shared" si="4"/>
         <v>157±12</v>
       </c>
       <c r="E40" s="5" t="str">
-        <f>J40&amp;"±"&amp;K40</f>
+        <f t="shared" si="5"/>
         <v>7±16.3</v>
       </c>
       <c r="F40" s="6" t="str">
-        <f>L40&amp;"±"&amp;M40</f>
+        <f t="shared" si="6"/>
         <v>11.2±0</v>
       </c>
       <c r="G40" s="7" t="str">
-        <f>O40&amp;"±"&amp;N40</f>
+        <f t="shared" si="7"/>
         <v>8.9±1.1</v>
       </c>
       <c r="H40">
@@ -2753,7 +2719,7 @@
         <v>-8.9</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -2764,19 +2730,19 @@
         <v>2</v>
       </c>
       <c r="D41" s="4" t="str">
-        <f>H41&amp;"±"&amp;I41</f>
+        <f t="shared" si="4"/>
         <v>1276±608</v>
       </c>
       <c r="E41" s="5" t="str">
-        <f>J41&amp;"±"&amp;K41</f>
+        <f t="shared" si="5"/>
         <v>2.4±8.1</v>
       </c>
       <c r="F41" s="6" t="str">
-        <f>L41&amp;"±"&amp;M41</f>
+        <f t="shared" si="6"/>
         <v>15.2±0.9</v>
       </c>
       <c r="G41" s="7" t="str">
-        <f>O41&amp;"±"&amp;N41</f>
+        <f t="shared" si="7"/>
         <v>7.4±1.8</v>
       </c>
       <c r="H41">
@@ -2807,7 +2773,7 @@
         <v>-7.4</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H42" t="s">
         <v>6</v>
       </c>
@@ -2833,7 +2799,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F43" t="s">
         <v>51</v>
       </c>
@@ -2841,43 +2807,43 @@
         <v>50</v>
       </c>
       <c r="H43">
-        <f>MIN(H3:H10)</f>
+        <f t="shared" ref="H43:P43" si="8">MIN(H3:H10)</f>
         <v>155</v>
       </c>
       <c r="I43">
-        <f>MIN(I3:I10)</f>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="J43" s="10">
-        <f>MIN(J3:J10)</f>
+        <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
       <c r="K43">
-        <f>MIN(K3:K10)</f>
+        <f t="shared" si="8"/>
         <v>1.6</v>
       </c>
       <c r="L43" s="11">
-        <f>MIN(L3:L10)</f>
+        <f t="shared" si="8"/>
         <v>9.6999999999999993</v>
       </c>
       <c r="M43">
-        <f>MIN(M3:M10)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N43">
-        <f>MIN(N3:N10)</f>
+        <f t="shared" si="8"/>
         <v>0.6</v>
       </c>
       <c r="O43">
-        <f>MIN(O3:O10)</f>
+        <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
       <c r="P43" s="12">
-        <f>MIN(P3:P10)</f>
+        <f t="shared" si="8"/>
         <v>-7.9</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F44" t="s">
         <v>52</v>
       </c>
@@ -2885,43 +2851,43 @@
         <v>50</v>
       </c>
       <c r="H44">
-        <f>MAX(H3:H10)</f>
+        <f t="shared" ref="H44:P44" si="9">MAX(H3:H10)</f>
         <v>9585</v>
       </c>
       <c r="I44">
-        <f>MAX(I3:I10)</f>
+        <f t="shared" si="9"/>
         <v>4681</v>
       </c>
       <c r="J44" s="10">
-        <f>MAX(J3:J10)</f>
+        <f t="shared" si="9"/>
         <v>63.6</v>
       </c>
       <c r="K44">
-        <f>MAX(K3:K10)</f>
+        <f t="shared" si="9"/>
         <v>11.7</v>
       </c>
       <c r="L44" s="11">
-        <f>MAX(L3:L10)</f>
+        <f t="shared" si="9"/>
         <v>21.3</v>
       </c>
       <c r="M44">
-        <f>MAX(M3:M10)</f>
+        <f t="shared" si="9"/>
         <v>2.1</v>
       </c>
       <c r="N44">
-        <f>MAX(N3:N10)</f>
+        <f t="shared" si="9"/>
         <v>3.9</v>
       </c>
       <c r="O44">
-        <f>MAX(O3:O10)</f>
+        <f t="shared" si="9"/>
         <v>7.9</v>
       </c>
       <c r="P44" s="12">
-        <f>MAX(P3:P10)</f>
+        <f t="shared" si="9"/>
         <v>-0.9</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F45" t="s">
         <v>51</v>
       </c>
@@ -2929,43 +2895,43 @@
         <v>53</v>
       </c>
       <c r="H45">
-        <f>MIN(H11:H23)</f>
+        <f t="shared" ref="H45:P45" si="10">MIN(H11:H23)</f>
         <v>110</v>
       </c>
       <c r="I45">
-        <f>MIN(I11:I23)</f>
+        <f t="shared" si="10"/>
         <v>59</v>
       </c>
       <c r="J45" s="10">
-        <f>MIN(J11:J23)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K45">
-        <f>MIN(K11:K23)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L45" s="11">
-        <f>MIN(L11:L23)</f>
+        <f t="shared" si="10"/>
         <v>13.8</v>
       </c>
       <c r="M45">
-        <f>MIN(M11:M23)</f>
+        <f t="shared" si="10"/>
         <v>0.6</v>
       </c>
       <c r="N45">
-        <f>MIN(N11:N23)</f>
+        <f t="shared" si="10"/>
         <v>0.7</v>
       </c>
       <c r="O45">
-        <f>MIN(O11:O23)</f>
+        <f t="shared" si="10"/>
         <v>0.1</v>
       </c>
       <c r="P45" s="12">
-        <f>MIN(P11:P23)</f>
+        <f t="shared" si="10"/>
         <v>-9.1999999999999993</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F46" t="s">
         <v>52</v>
       </c>
@@ -2973,43 +2939,43 @@
         <v>53</v>
       </c>
       <c r="H46">
-        <f>MAX(H11:H23)</f>
+        <f t="shared" ref="H46:P46" si="11">MAX(H11:H23)</f>
         <v>7898</v>
       </c>
       <c r="I46">
-        <f>MAX(I11:I23)</f>
+        <f t="shared" si="11"/>
         <v>882</v>
       </c>
       <c r="J46" s="10">
-        <f>MAX(J11:J23)</f>
+        <f t="shared" si="11"/>
         <v>69.400000000000006</v>
       </c>
       <c r="K46">
-        <f>MAX(K11:K23)</f>
+        <f t="shared" si="11"/>
         <v>28.3</v>
       </c>
       <c r="L46" s="11">
-        <f>MAX(L11:L23)</f>
+        <f t="shared" si="11"/>
         <v>21.8</v>
       </c>
       <c r="M46">
-        <f>MAX(M11:M23)</f>
+        <f t="shared" si="11"/>
         <v>2.9</v>
       </c>
       <c r="N46">
-        <f>MAX(N11:N23)</f>
+        <f t="shared" si="11"/>
         <v>2.7</v>
       </c>
       <c r="O46">
-        <f>MAX(O11:O23)</f>
+        <f t="shared" si="11"/>
         <v>9.1999999999999993</v>
       </c>
       <c r="P46" s="12">
-        <f>MAX(P11:P23)</f>
+        <f t="shared" si="11"/>
         <v>-0.1</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F47" t="s">
         <v>51</v>
       </c>
@@ -3017,43 +2983,43 @@
         <v>54</v>
       </c>
       <c r="H47">
-        <f>MIN(H24:H31)</f>
+        <f t="shared" ref="H47:P47" si="12">MIN(H24:H31)</f>
         <v>94</v>
       </c>
       <c r="I47">
-        <f>MIN(I24:I31)</f>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="J47" s="10">
-        <f>MIN(J24:J31)</f>
+        <f t="shared" si="12"/>
         <v>1.2</v>
       </c>
       <c r="K47">
-        <f>MIN(K24:K31)</f>
+        <f t="shared" si="12"/>
         <v>5.7</v>
       </c>
       <c r="L47" s="11">
-        <f>MIN(L24:L31)</f>
+        <f t="shared" si="12"/>
         <v>11.3</v>
       </c>
       <c r="M47">
-        <f>MIN(M24:M31)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N47">
-        <f>MIN(N24:N31)</f>
+        <f t="shared" si="12"/>
         <v>1.2</v>
       </c>
       <c r="O47">
-        <f>MIN(O24:O31)</f>
+        <f t="shared" si="12"/>
         <v>2.4</v>
       </c>
       <c r="P47" s="12">
-        <f>MIN(P24:P31)</f>
+        <f t="shared" si="12"/>
         <v>-9.6999999999999993</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F48" t="s">
         <v>52</v>
       </c>
@@ -3061,43 +3027,43 @@
         <v>54</v>
       </c>
       <c r="H48">
-        <f>MAX(H24:H31)</f>
+        <f t="shared" ref="H48:P48" si="13">MAX(H24:H31)</f>
         <v>2026</v>
       </c>
       <c r="I48">
-        <f>MAX(I24:I31)</f>
+        <f t="shared" si="13"/>
         <v>1356</v>
       </c>
       <c r="J48" s="10">
-        <f>MAX(J24:J31)</f>
+        <f t="shared" si="13"/>
         <v>36.1</v>
       </c>
       <c r="K48">
-        <f>MAX(K24:K31)</f>
+        <f t="shared" si="13"/>
         <v>23.7</v>
       </c>
       <c r="L48" s="11">
-        <f>MAX(L24:L31)</f>
+        <f t="shared" si="13"/>
         <v>18.8</v>
       </c>
       <c r="M48">
-        <f>MAX(M24:M31)</f>
+        <f t="shared" si="13"/>
         <v>1.4</v>
       </c>
       <c r="N48">
-        <f>MAX(N24:N31)</f>
+        <f t="shared" si="13"/>
         <v>2.4</v>
       </c>
       <c r="O48">
-        <f>MAX(O24:O31)</f>
+        <f t="shared" si="13"/>
         <v>9.6999999999999993</v>
       </c>
       <c r="P48" s="12">
-        <f>MAX(P24:P31)</f>
+        <f t="shared" si="13"/>
         <v>-2.4</v>
       </c>
     </row>
-    <row r="49" spans="6:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F49" t="s">
         <v>51</v>
       </c>
@@ -3105,43 +3071,43 @@
         <v>55</v>
       </c>
       <c r="H49">
-        <f>MIN(H32:H34)</f>
+        <f t="shared" ref="H49:P49" si="14">MIN(H32:H34)</f>
         <v>78</v>
       </c>
       <c r="I49">
-        <f>MIN(I32:I34)</f>
+        <f t="shared" si="14"/>
         <v>25</v>
       </c>
       <c r="J49" s="10">
-        <f>MIN(J32:J34)</f>
+        <f t="shared" si="14"/>
         <v>42.7</v>
       </c>
       <c r="K49">
-        <f>MIN(K32:K34)</f>
+        <f t="shared" si="14"/>
         <v>10.199999999999999</v>
       </c>
       <c r="L49" s="11">
-        <f>MIN(L32:L34)</f>
+        <f t="shared" si="14"/>
         <v>17.899999999999999</v>
       </c>
       <c r="M49">
-        <f>MIN(M32:M34)</f>
+        <f t="shared" si="14"/>
         <v>0.1</v>
       </c>
       <c r="N49">
-        <f>MIN(N32:N34)</f>
+        <f t="shared" si="14"/>
         <v>1.2</v>
       </c>
       <c r="O49">
-        <f>MIN(O32:O34)</f>
+        <f t="shared" si="14"/>
         <v>0.6</v>
       </c>
       <c r="P49" s="12">
-        <f>MIN(P32:P34)</f>
+        <f t="shared" si="14"/>
         <v>-2.2000000000000002</v>
       </c>
     </row>
-    <row r="50" spans="6:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F50" t="s">
         <v>52</v>
       </c>
@@ -3149,43 +3115,43 @@
         <v>55</v>
       </c>
       <c r="H50">
-        <f>MAX(H32:H34)</f>
+        <f t="shared" ref="H50:P50" si="15">MAX(H32:H34)</f>
         <v>140</v>
       </c>
       <c r="I50">
-        <f>MAX(I32:I34)</f>
+        <f t="shared" si="15"/>
         <v>88</v>
       </c>
       <c r="J50" s="10">
-        <f>MAX(J32:J34)</f>
+        <f t="shared" si="15"/>
         <v>54.5</v>
       </c>
       <c r="K50">
-        <f>MAX(K32:K34)</f>
+        <f t="shared" si="15"/>
         <v>17</v>
       </c>
       <c r="L50" s="11">
-        <f>MAX(L32:L34)</f>
+        <f t="shared" si="15"/>
         <v>18.5</v>
       </c>
       <c r="M50">
-        <f>MAX(M32:M34)</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="N50">
-        <f>MAX(N32:N34)</f>
+        <f t="shared" si="15"/>
         <v>1.4</v>
       </c>
       <c r="O50">
-        <f>MAX(O32:O34)</f>
+        <f t="shared" si="15"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="P50" s="12">
-        <f>MAX(P32:P34)</f>
+        <f t="shared" si="15"/>
         <v>-0.6</v>
       </c>
     </row>
-    <row r="51" spans="6:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F51" t="s">
         <v>51</v>
       </c>
@@ -3193,43 +3159,43 @@
         <v>56</v>
       </c>
       <c r="H51">
-        <f>MIN(H35:H39)</f>
+        <f t="shared" ref="H51:P51" si="16">MIN(H35:H39)</f>
         <v>181</v>
       </c>
       <c r="I51">
-        <f>MIN(I35:I39)</f>
+        <f t="shared" si="16"/>
         <v>36</v>
       </c>
       <c r="J51" s="10">
-        <f>MIN(J35:J39)</f>
+        <f t="shared" si="16"/>
         <v>11.4</v>
       </c>
       <c r="K51">
-        <f>MIN(K35:K39)</f>
+        <f t="shared" si="16"/>
         <v>19.7</v>
       </c>
       <c r="L51" s="11">
-        <f>MIN(L35:L39)</f>
+        <f t="shared" si="16"/>
         <v>15.9</v>
       </c>
       <c r="M51">
-        <f>MIN(M35:M39)</f>
+        <f t="shared" si="16"/>
         <v>0.1</v>
       </c>
       <c r="N51">
-        <f>MIN(N35:N39)</f>
+        <f t="shared" si="16"/>
         <v>1.5</v>
       </c>
       <c r="O51">
-        <f>MIN(O35:O39)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="P51" s="12">
-        <f>MIN(P35:P39)</f>
+        <f t="shared" si="16"/>
         <v>-6.1</v>
       </c>
     </row>
-    <row r="52" spans="6:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F52" t="s">
         <v>52</v>
       </c>
@@ -3237,39 +3203,39 @@
         <v>56</v>
       </c>
       <c r="H52">
-        <f>MAX(H35:H39)</f>
+        <f t="shared" ref="H52:P52" si="17">MAX(H35:H39)</f>
         <v>1016</v>
       </c>
       <c r="I52">
-        <f>MAX(I35:I39)</f>
+        <f t="shared" si="17"/>
         <v>376</v>
       </c>
       <c r="J52" s="10">
-        <f>MAX(J35:J39)</f>
+        <f t="shared" si="17"/>
         <v>24.3</v>
       </c>
       <c r="K52">
-        <f>MAX(K35:K39)</f>
+        <f t="shared" si="17"/>
         <v>24.3</v>
       </c>
       <c r="L52" s="11">
-        <f>MAX(L35:L39)</f>
+        <f t="shared" si="17"/>
         <v>18</v>
       </c>
       <c r="M52">
-        <f>MAX(M35:M39)</f>
+        <f t="shared" si="17"/>
         <v>1.3</v>
       </c>
       <c r="N52">
-        <f>MAX(N35:N39)</f>
+        <f t="shared" si="17"/>
         <v>3.5</v>
       </c>
       <c r="O52">
-        <f>MAX(O35:O39)</f>
+        <f t="shared" si="17"/>
         <v>6.1</v>
       </c>
       <c r="P52" s="12">
-        <f>MAX(P35:P39)</f>
+        <f t="shared" si="17"/>
         <v>-3</v>
       </c>
     </row>
@@ -3290,7 +3256,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3303,7 +3269,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
